--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/Lagdtp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/Lagdtp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F90E2-C499-4E89-9E88-B3EEE8E53A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA66BC-722D-4B8B-B272-88F05A09E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>VARCHAR2</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Cusbrh</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -403,6 +400,9 @@
   <si>
     <t>註記</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1099,10 +1099,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -1207,13 +1207,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="22">
         <v>4</v>
@@ -1226,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="22">
         <v>1</v>
@@ -1245,13 +1245,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
@@ -1264,13 +1264,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="22">
         <v>7</v>
@@ -1283,13 +1283,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="22">
         <v>2</v>
@@ -1302,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="22">
         <v>8</v>
@@ -1321,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="22">
         <v>8</v>
@@ -1340,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="22">
         <v>1</v>
@@ -1359,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="22">
         <v>11</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="22">
         <v>200</v>
@@ -1399,13 +1399,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="22">
         <v>11</v>
@@ -1420,13 +1420,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="22">
         <v>200</v>
@@ -1439,13 +1439,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="D21" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="22">
         <v>11</v>
@@ -1458,13 +1458,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="22">
         <v>200</v>
@@ -1477,13 +1477,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="22">
         <v>200</v>
@@ -1496,13 +1496,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="D24" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="22">
         <v>11</v>
@@ -1515,13 +1515,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="22">
         <v>7</v>
@@ -1534,13 +1534,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="22">
         <v>3</v>
@@ -1553,13 +1553,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="22">
         <v>8</v>
@@ -1572,13 +1572,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="22">
         <v>1</v>
@@ -1591,13 +1591,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="D29" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="22">
         <v>3</v>
@@ -1610,13 +1610,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>81</v>
-      </c>
       <c r="D30" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="22">
         <v>11</v>
@@ -1629,13 +1629,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="22">
         <v>11</v>
@@ -1648,13 +1648,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="22">
         <v>11</v>
@@ -1667,13 +1667,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="D33" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="22">
         <v>11</v>
@@ -1686,13 +1686,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="22">
         <v>11</v>
@@ -1705,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="22">
         <v>20</v>
@@ -1724,13 +1724,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>93</v>
-      </c>
       <c r="D36" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="22">
         <v>20</v>
@@ -1743,13 +1743,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E37" s="22">
         <v>10</v>
@@ -1762,13 +1762,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>97</v>
-      </c>
       <c r="D38" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="22">
         <v>20</v>
@@ -1781,13 +1781,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E39" s="22">
         <v>7</v>
@@ -1800,13 +1800,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="3" t="s">
@@ -1819,10 +1819,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>20</v>
@@ -1840,13 +1840,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="D42" s="20" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="3" t="s">
@@ -1859,10 +1859,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>20</v>
